--- a/public/upload/report/DATA PEGAWAI.xlsx
+++ b/public/upload/report/DATA PEGAWAI.xlsx
@@ -15,18 +15,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>DATA PEGAWAI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
-    <t>NAMA PEGAWAI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>BIRO HUKUM</t>
+  </si>
+  <si>
+    <t>PROVINSI SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>LEMBAR DISPOSISI</t>
+  </si>
+  <si>
+    <t>Surat Dari</t>
+  </si>
+  <si>
+    <t>Tanggal Surat</t>
+  </si>
+  <si>
+    <t>Nomor Surat</t>
+  </si>
+  <si>
+    <t>: BADAN PENDAPATAN DAERAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>Diterima Tanggal</t>
+  </si>
+  <si>
+    <t>Nomor Agenda</t>
+  </si>
+  <si>
+    <t>Sifat Surat</t>
+  </si>
+  <si>
+    <t>: RAHASIA / SANGAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SEGERA / SEGERA</t>
+  </si>
+  <si>
+    <t>DISAMPAIKAN DAN DITERUSKAN KEPADA :</t>
+  </si>
+  <si>
+    <t>C A T A T A N</t>
+  </si>
+  <si>
+    <t>KABAG. PERATURAN PERUNDANG-</t>
+  </si>
+  <si>
+    <t>UNDANGAN KAB/KOTA</t>
+  </si>
+  <si>
+    <t>(SOEGIHARTO PIDANI, SH)</t>
+  </si>
+  <si>
+    <t>KABAG. BANTUAN HUKUM DAN HAM</t>
+  </si>
+  <si>
+    <t>(I NENGAH SUARYO, SH,MH)</t>
+  </si>
+  <si>
+    <t>PERANCANG PERATURAN PERUNDANG-</t>
+  </si>
+  <si>
+    <t>UNDANGAN AHLI MADYA</t>
+  </si>
+  <si>
+    <t>(H. ABDUL RAKIL NABA, SH.,MH)</t>
+  </si>
+  <si>
+    <t>D I S P O S I S I :</t>
+  </si>
+  <si>
+    <t>Telaah/Beri Penjelasan</t>
+  </si>
+  <si>
+    <t>Koordinasikan/Konfirmasikan</t>
+  </si>
+  <si>
+    <t>Proses Lebih Lanjut/Ditindak Lanjuti.</t>
+  </si>
+  <si>
+    <t>Koreksi/Sempurnakan</t>
+  </si>
+  <si>
+    <t>Buatkan Laporan Kepada Pimpinan</t>
+  </si>
+  <si>
+    <t>Buatkan Laporan/Jawaban/Saran</t>
+  </si>
+  <si>
+    <t>M o n i t o r</t>
+  </si>
+  <si>
+    <t>Koordinasikan Lebih Lanjut dengan</t>
+  </si>
+  <si>
+    <t>Untuk diketahui/Dipedomankan/Menjadi</t>
+  </si>
+  <si>
+    <t>Petunjuk.</t>
+  </si>
+  <si>
+    <t>Simpan Sebagai Bahan</t>
+  </si>
+  <si>
+    <t>Tanda Tangan/Paraf</t>
+  </si>
+  <si>
+    <t>KEPALA BIRO HUKUM</t>
+  </si>
+  <si>
+    <t>H. KAMARI, SH</t>
+  </si>
+  <si>
+    <t>Pembina Utama Muda, Gol. IV/C</t>
+  </si>
+  <si>
+    <t>Nip. 19621211 198803 1 001</t>
   </si>
 </sst>
 </file>
@@ -34,12 +142,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -53,12 +179,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -68,19 +210,153 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -382,41 +658,535 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="G9" sqref="G9:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" customWidth="true" style="0"/>
-    <col min="3" max="3" width="40" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4" customWidth="true" style="0"/>
+    <col min="2" max="2" width="1" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6" customWidth="true" style="0"/>
+    <col min="4" max="4" width="1" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7" customWidth="true" style="0"/>
+    <col min="6" max="6" width="28" customWidth="true" style="0"/>
+    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="9"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="18"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="18"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12"/>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13"/>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="18"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="18"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16"/>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19"/>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20"/>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="18"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="18"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="18"/>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="18"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="18"/>
+      <c r="C25">
+        <v>1.0</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="18"/>
+      <c r="C26">
+        <v>2.0</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="18"/>
+      <c r="C27">
+        <v>3.0</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="18"/>
+      <c r="C28">
+        <v>4.0</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="18"/>
+      <c r="C29">
+        <v>5.0</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="18"/>
+      <c r="C30">
+        <v>6.0</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="18"/>
+      <c r="C31">
+        <v>7.0</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="18"/>
+      <c r="C32">
+        <v>8.0</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="18"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="18"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="18"/>
+      <c r="C35">
+        <v>9.0</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
